--- a/experiments/ana-flavia-NRxSTD-NR-trim/sheets/absolute-all_frequencies.xlsx
+++ b/experiments/ana-flavia-NRxSTD-NR-trim/sheets/absolute-all_frequencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="317">
   <si>
     <t>total_sum</t>
   </si>
@@ -31,40 +31,40 @@
     <t>STD-NR</t>
   </si>
   <si>
-    <t>210421121677</t>
-  </si>
-  <si>
-    <t>210421121678</t>
-  </si>
-  <si>
-    <t>210421121679</t>
-  </si>
-  <si>
-    <t>210421121680</t>
-  </si>
-  <si>
-    <t>210421121681</t>
-  </si>
-  <si>
-    <t>210421121685</t>
-  </si>
-  <si>
-    <t>210421121686</t>
-  </si>
-  <si>
-    <t>210421121687</t>
-  </si>
-  <si>
-    <t>210421121703</t>
-  </si>
-  <si>
-    <t>210421121704</t>
-  </si>
-  <si>
-    <t>210421121705</t>
-  </si>
-  <si>
-    <t>210421121706</t>
+    <t>S210421121677</t>
+  </si>
+  <si>
+    <t>S210421121678</t>
+  </si>
+  <si>
+    <t>S210421121679</t>
+  </si>
+  <si>
+    <t>S210421121680</t>
+  </si>
+  <si>
+    <t>S210421121681</t>
+  </si>
+  <si>
+    <t>S210421121685</t>
+  </si>
+  <si>
+    <t>S210421121686</t>
+  </si>
+  <si>
+    <t>S210421121687</t>
+  </si>
+  <si>
+    <t>S210421121703</t>
+  </si>
+  <si>
+    <t>S210421121704</t>
+  </si>
+  <si>
+    <t>S210421121705</t>
+  </si>
+  <si>
+    <t>S210421121706</t>
   </si>
   <si>
     <t>Bacteria</t>
@@ -583,12 +583,12 @@
     <t>Coriobacteriaceae_UCG-002</t>
   </si>
   <si>
+    <t>Papillibacter</t>
+  </si>
+  <si>
     <t>Coprobacillus</t>
   </si>
   <si>
-    <t>Papillibacter</t>
-  </si>
-  <si>
     <t>Lachnospiraceae_UCG-006</t>
   </si>
   <si>
@@ -700,24 +700,24 @@
     <t>[Eubacterium]_brachy_group</t>
   </si>
   <si>
+    <t>UCG-004</t>
+  </si>
+  <si>
+    <t>Achromobacter</t>
+  </si>
+  <si>
+    <t>Aerococcus</t>
+  </si>
+  <si>
+    <t>UCG-007</t>
+  </si>
+  <si>
+    <t>Parvibacter</t>
+  </si>
+  <si>
     <t>Rikenella</t>
   </si>
   <si>
-    <t>UCG-004</t>
-  </si>
-  <si>
-    <t>Achromobacter</t>
-  </si>
-  <si>
-    <t>Aerococcus</t>
-  </si>
-  <si>
-    <t>UCG-007</t>
-  </si>
-  <si>
-    <t>Parvibacter</t>
-  </si>
-  <si>
     <t>Paludicola</t>
   </si>
   <si>
@@ -745,12 +745,12 @@
     <t>Acetatifactor</t>
   </si>
   <si>
+    <t>UCG-003</t>
+  </si>
+  <si>
     <t>Corynebacterium</t>
   </si>
   <si>
-    <t>UCG-003</t>
-  </si>
-  <si>
     <t>Acinetobacter</t>
   </si>
   <si>
@@ -760,15 +760,15 @@
     <t>Intestinimonas</t>
   </si>
   <si>
+    <t>Anaerofilum</t>
+  </si>
+  <si>
     <t>Lachnospiraceae_NC2004_group</t>
   </si>
   <si>
     <t>Odoribacter</t>
   </si>
   <si>
-    <t>Anaerofilum</t>
-  </si>
-  <si>
     <t>Peptococcus</t>
   </si>
   <si>
@@ -778,18 +778,21 @@
     <t>Mucispirillum</t>
   </si>
   <si>
+    <t>Lachnospiraceae_UCG-010</t>
+  </si>
+  <si>
     <t>ASF356</t>
   </si>
   <si>
-    <t>Lachnospiraceae_UCG-010</t>
-  </si>
-  <si>
     <t>Comamonas</t>
   </si>
   <si>
     <t>Lachnospiraceae_FCS020_group</t>
   </si>
   <si>
+    <t>[Eubacterium]_fissicatena_group</t>
+  </si>
+  <si>
     <t>Bacillus</t>
   </si>
   <si>
@@ -802,12 +805,12 @@
     <t>Enterococcus</t>
   </si>
   <si>
+    <t>Faecalitalea</t>
+  </si>
+  <si>
     <t>DTU089</t>
   </si>
   <si>
-    <t>Faecalitalea</t>
-  </si>
-  <si>
     <t>Microvirga</t>
   </si>
   <si>
@@ -865,12 +868,12 @@
     <t>Bifidobacterium_animalis</t>
   </si>
   <si>
+    <t>Clostridiales_bacterium</t>
+  </si>
+  <si>
     <t>uncultured_Barnesiella</t>
   </si>
   <si>
-    <t>Clostridiales_bacterium</t>
-  </si>
-  <si>
     <t>uncultured_Ruminococcus</t>
   </si>
   <si>
@@ -886,12 +889,12 @@
     <t>unidentified_rumen</t>
   </si>
   <si>
+    <t>uncultured_Clostridiales</t>
+  </si>
+  <si>
     <t>bacterium_NLAE-zl-H60</t>
   </si>
   <si>
-    <t>uncultured_Clostridiales</t>
-  </si>
-  <si>
     <t>uncultured_prokaryote</t>
   </si>
   <si>
@@ -910,10 +913,10 @@
     <t>uncultured_Clostridium</t>
   </si>
   <si>
+    <t>[Clostridium]_leptum</t>
+  </si>
+  <si>
     <t>Alistipes_timonensis</t>
-  </si>
-  <si>
-    <t>[Clostridium]_leptum</t>
   </si>
   <si>
     <t>Extibacter_muris</t>
@@ -1383,49 +1386,49 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1685857</v>
+        <v>1685743</v>
       </c>
       <c r="C2">
-        <v>859567</v>
+        <v>859425</v>
       </c>
       <c r="D2">
-        <v>826290</v>
+        <v>826318</v>
       </c>
       <c r="E2">
-        <v>234907</v>
+        <v>234838</v>
       </c>
       <c r="F2">
-        <v>67503</v>
+        <v>67500</v>
       </c>
       <c r="G2">
-        <v>227044</v>
+        <v>227035</v>
       </c>
       <c r="H2">
-        <v>182394</v>
+        <v>182333</v>
       </c>
       <c r="I2">
         <v>147719</v>
       </c>
       <c r="J2">
-        <v>177656</v>
+        <v>177616</v>
       </c>
       <c r="K2">
-        <v>55725</v>
+        <v>56146</v>
       </c>
       <c r="L2">
-        <v>46487</v>
+        <v>46462</v>
       </c>
       <c r="M2">
-        <v>15835</v>
+        <v>15834</v>
       </c>
       <c r="N2">
-        <v>3382</v>
+        <v>3381</v>
       </c>
       <c r="O2">
-        <v>239250</v>
+        <v>239260</v>
       </c>
       <c r="P2">
-        <v>287955</v>
+        <v>287619</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1543,34 +1546,34 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -1582,10 +1585,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1593,49 +1596,49 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>465739</v>
+        <v>465934</v>
       </c>
       <c r="C3">
-        <v>141781</v>
+        <v>141730</v>
       </c>
       <c r="D3">
-        <v>323958</v>
+        <v>324204</v>
       </c>
       <c r="E3">
-        <v>10149</v>
+        <v>10150</v>
       </c>
       <c r="F3">
-        <v>13871</v>
+        <v>13870</v>
       </c>
       <c r="G3">
-        <v>31216</v>
+        <v>31215</v>
       </c>
       <c r="H3">
-        <v>70439</v>
+        <v>70390</v>
       </c>
       <c r="I3">
-        <v>16106</v>
+        <v>16105</v>
       </c>
       <c r="J3">
-        <v>75010</v>
+        <v>74995</v>
       </c>
       <c r="K3">
-        <v>16165</v>
+        <v>16577</v>
       </c>
       <c r="L3">
-        <v>36581</v>
+        <v>36555</v>
       </c>
       <c r="M3">
-        <v>14081</v>
+        <v>14080</v>
       </c>
       <c r="N3">
-        <v>2681</v>
+        <v>2680</v>
       </c>
       <c r="O3">
-        <v>51670</v>
+        <v>51689</v>
       </c>
       <c r="P3">
-        <v>127770</v>
+        <v>127628</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1643,16 +1646,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C4">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D4">
         <v>2207</v>
       </c>
       <c r="E4">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1693,16 +1696,16 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>12084</v>
+        <v>12056</v>
       </c>
       <c r="C5">
-        <v>5752</v>
+        <v>5713</v>
       </c>
       <c r="D5">
-        <v>6332</v>
+        <v>6343</v>
       </c>
       <c r="E5">
-        <v>3302</v>
+        <v>3263</v>
       </c>
       <c r="F5">
         <v>178</v>
@@ -1717,7 +1720,7 @@
         <v>447</v>
       </c>
       <c r="J5">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="K5">
         <v>138</v>
@@ -1726,16 +1729,16 @@
         <v>196</v>
       </c>
       <c r="M5">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="N5">
         <v>38</v>
       </c>
       <c r="O5">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="P5">
-        <v>1691</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1743,13 +1746,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C6">
         <v>173</v>
       </c>
       <c r="D6">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1773,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6">
         <v>250</v>
@@ -1793,13 +1796,13 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <v>4871</v>
+        <v>4865</v>
       </c>
       <c r="C7">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D7">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -1811,13 +1814,13 @@
         <v>24</v>
       </c>
       <c r="H7">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="I7">
         <v>348</v>
       </c>
       <c r="J7">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K7">
         <v>87</v>
@@ -1826,16 +1829,16 @@
         <v>253</v>
       </c>
       <c r="M7">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P7">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2203,34 +2206,34 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -2242,10 +2245,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2253,49 +2256,49 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>354325</v>
+        <v>354541</v>
       </c>
       <c r="C3">
-        <v>99324</v>
+        <v>99273</v>
       </c>
       <c r="D3">
-        <v>255001</v>
+        <v>255268</v>
       </c>
       <c r="E3">
-        <v>6480</v>
+        <v>6481</v>
       </c>
       <c r="F3">
-        <v>5273</v>
+        <v>5272</v>
       </c>
       <c r="G3">
-        <v>26145</v>
+        <v>26144</v>
       </c>
       <c r="H3">
-        <v>52033</v>
+        <v>51983</v>
       </c>
       <c r="I3">
         <v>9393</v>
       </c>
       <c r="J3">
-        <v>63452</v>
+        <v>63437</v>
       </c>
       <c r="K3">
-        <v>12961</v>
+        <v>13369</v>
       </c>
       <c r="L3">
-        <v>22882</v>
+        <v>22875</v>
       </c>
       <c r="M3">
-        <v>9608</v>
+        <v>9607</v>
       </c>
       <c r="N3">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O3">
-        <v>44421</v>
+        <v>44441</v>
       </c>
       <c r="P3">
-        <v>100346</v>
+        <v>100209</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2303,13 +2306,13 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>109246</v>
+        <v>109225</v>
       </c>
       <c r="C4">
         <v>42457</v>
       </c>
       <c r="D4">
-        <v>66789</v>
+        <v>66768</v>
       </c>
       <c r="E4">
         <v>3669</v>
@@ -2321,19 +2324,19 @@
         <v>5071</v>
       </c>
       <c r="H4">
-        <v>18406</v>
+        <v>18407</v>
       </c>
       <c r="I4">
-        <v>6713</v>
+        <v>6712</v>
       </c>
       <c r="J4">
         <v>11558</v>
       </c>
       <c r="K4">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="L4">
-        <v>13699</v>
+        <v>13680</v>
       </c>
       <c r="M4">
         <v>4473</v>
@@ -2342,10 +2345,10 @@
         <v>1350</v>
       </c>
       <c r="O4">
-        <v>5426</v>
+        <v>5425</v>
       </c>
       <c r="P4">
-        <v>27079</v>
+        <v>27074</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2353,16 +2356,16 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C5">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D5">
         <v>2207</v>
       </c>
       <c r="E5">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2403,16 +2406,16 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>11453</v>
+        <v>11425</v>
       </c>
       <c r="C6">
-        <v>5703</v>
+        <v>5664</v>
       </c>
       <c r="D6">
-        <v>5750</v>
+        <v>5761</v>
       </c>
       <c r="E6">
-        <v>3293</v>
+        <v>3254</v>
       </c>
       <c r="F6">
         <v>178</v>
@@ -2427,7 +2430,7 @@
         <v>447</v>
       </c>
       <c r="J6">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="K6">
         <v>138</v>
@@ -2436,16 +2439,16 @@
         <v>196</v>
       </c>
       <c r="M6">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="N6">
         <v>38</v>
       </c>
       <c r="O6">
-        <v>1946</v>
+        <v>1952</v>
       </c>
       <c r="P6">
-        <v>1611</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2453,13 +2456,13 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C7">
         <v>173</v>
       </c>
       <c r="D7">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7">
         <v>250</v>
@@ -2503,10 +2506,10 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="C8">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D8">
         <v>1272</v>
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I8">
         <v>55</v>
@@ -2553,13 +2556,13 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C9">
         <v>953</v>
       </c>
       <c r="D9">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E9">
         <v>13</v>
@@ -2577,7 +2580,7 @@
         <v>293</v>
       </c>
       <c r="J9">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -2586,16 +2589,16 @@
         <v>253</v>
       </c>
       <c r="M9">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P9">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3063,34 +3066,34 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>1158218</v>
+        <v>1157943</v>
       </c>
       <c r="C2">
-        <v>677598</v>
+        <v>677550</v>
       </c>
       <c r="D2">
-        <v>480620</v>
+        <v>480393</v>
       </c>
       <c r="E2">
-        <v>189534</v>
+        <v>189504</v>
       </c>
       <c r="F2">
-        <v>53332</v>
+        <v>53330</v>
       </c>
       <c r="G2">
-        <v>194744</v>
+        <v>194736</v>
       </c>
       <c r="H2">
-        <v>109241</v>
+        <v>109232</v>
       </c>
       <c r="I2">
-        <v>130747</v>
+        <v>130748</v>
       </c>
       <c r="J2">
-        <v>98756</v>
+        <v>98731</v>
       </c>
       <c r="K2">
-        <v>38952</v>
+        <v>38961</v>
       </c>
       <c r="L2">
         <v>8572</v>
@@ -3102,10 +3105,10 @@
         <v>653</v>
       </c>
       <c r="O2">
-        <v>184001</v>
+        <v>183988</v>
       </c>
       <c r="P2">
-        <v>149536</v>
+        <v>149338</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3113,37 +3116,37 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>124650</v>
+        <v>124743</v>
       </c>
       <c r="C3">
-        <v>51090</v>
+        <v>51040</v>
       </c>
       <c r="D3">
-        <v>73560</v>
+        <v>73703</v>
       </c>
       <c r="E3">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="F3">
         <v>1158</v>
       </c>
       <c r="G3">
-        <v>17979</v>
+        <v>17977</v>
       </c>
       <c r="H3">
-        <v>25507</v>
+        <v>25459</v>
       </c>
       <c r="I3">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="J3">
-        <v>23002</v>
+        <v>22999</v>
       </c>
       <c r="K3">
-        <v>4318</v>
+        <v>4447</v>
       </c>
       <c r="L3">
-        <v>9792</v>
+        <v>9788</v>
       </c>
       <c r="M3">
         <v>941</v>
@@ -3152,7 +3155,7 @@
         <v>481</v>
       </c>
       <c r="O3">
-        <v>25958</v>
+        <v>25979</v>
       </c>
       <c r="P3">
         <v>9068</v>
@@ -3163,19 +3166,19 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>119420</v>
+        <v>119642</v>
       </c>
       <c r="C4">
         <v>32902</v>
       </c>
       <c r="D4">
-        <v>86518</v>
+        <v>86740</v>
       </c>
       <c r="E4">
         <v>1876</v>
       </c>
       <c r="F4">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="G4">
         <v>6940</v>
@@ -3184,28 +3187,28 @@
         <v>14616</v>
       </c>
       <c r="I4">
-        <v>5574</v>
+        <v>5575</v>
       </c>
       <c r="J4">
-        <v>23579</v>
+        <v>23571</v>
       </c>
       <c r="K4">
-        <v>5325</v>
+        <v>5603</v>
       </c>
       <c r="L4">
-        <v>9391</v>
+        <v>9389</v>
       </c>
       <c r="M4">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="N4">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O4">
-        <v>16085</v>
+        <v>16084</v>
       </c>
       <c r="P4">
-        <v>30642</v>
+        <v>30599</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3213,13 +3216,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C5">
         <v>337</v>
       </c>
       <c r="D5">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3237,13 +3240,13 @@
         <v>232</v>
       </c>
       <c r="J5">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K5">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L5">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M5">
         <v>2633</v>
@@ -3255,7 +3258,7 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3263,13 +3266,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>70198</v>
+        <v>70200</v>
       </c>
       <c r="C6">
-        <v>36933</v>
+        <v>36932</v>
       </c>
       <c r="D6">
-        <v>33265</v>
+        <v>33268</v>
       </c>
       <c r="E6">
         <v>2142</v>
@@ -3284,13 +3287,13 @@
         <v>16258</v>
       </c>
       <c r="I6">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="J6">
         <v>7626</v>
       </c>
       <c r="K6">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L6">
         <v>12364</v>
@@ -3305,7 +3308,7 @@
         <v>2420</v>
       </c>
       <c r="P6">
-        <v>4577</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3313,16 +3316,16 @@
         <v>50</v>
       </c>
       <c r="B7">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C7">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D7">
         <v>2207</v>
       </c>
       <c r="E7">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3366,10 +3369,10 @@
         <v>28070</v>
       </c>
       <c r="C8">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="D8">
-        <v>26375</v>
+        <v>26374</v>
       </c>
       <c r="E8">
         <v>160</v>
@@ -3381,7 +3384,7 @@
         <v>280</v>
       </c>
       <c r="H8">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="I8">
         <v>232</v>
@@ -3402,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="P8">
         <v>20187</v>
@@ -3416,10 +3419,10 @@
         <v>18654</v>
       </c>
       <c r="C9">
-        <v>11740</v>
+        <v>11741</v>
       </c>
       <c r="D9">
-        <v>6914</v>
+        <v>6913</v>
       </c>
       <c r="E9">
         <v>320</v>
@@ -3428,7 +3431,7 @@
         <v>118</v>
       </c>
       <c r="G9">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="H9">
         <v>9773</v>
@@ -3455,7 +3458,7 @@
         <v>1210</v>
       </c>
       <c r="P9">
-        <v>2474</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3463,13 +3466,13 @@
         <v>53</v>
       </c>
       <c r="B10">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C10">
         <v>173</v>
       </c>
       <c r="D10">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3493,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10">
         <v>250</v>
@@ -3513,13 +3516,13 @@
         <v>54</v>
       </c>
       <c r="B11">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C11">
         <v>53</v>
       </c>
       <c r="D11">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3555,7 +3558,7 @@
         <v>246</v>
       </c>
       <c r="P11">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3613,13 +3616,13 @@
         <v>56</v>
       </c>
       <c r="B13">
-        <v>5769</v>
+        <v>5781</v>
       </c>
       <c r="C13">
         <v>2598</v>
       </c>
       <c r="D13">
-        <v>3171</v>
+        <v>3183</v>
       </c>
       <c r="E13">
         <v>1346</v>
@@ -3646,16 +3649,16 @@
         <v>20</v>
       </c>
       <c r="M13">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="P13">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -3663,16 +3666,16 @@
         <v>57</v>
       </c>
       <c r="B14">
-        <v>4686</v>
+        <v>4647</v>
       </c>
       <c r="C14">
-        <v>2987</v>
+        <v>2948</v>
       </c>
       <c r="D14">
         <v>1699</v>
       </c>
       <c r="E14">
-        <v>1947</v>
+        <v>1908</v>
       </c>
       <c r="F14">
         <v>117</v>
@@ -3713,13 +3716,13 @@
         <v>58</v>
       </c>
       <c r="B15">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="C15">
         <v>93</v>
       </c>
       <c r="D15">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="E15">
         <v>34</v>
@@ -3737,10 +3740,10 @@
         <v>11</v>
       </c>
       <c r="J15">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K15">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15">
         <v>62</v>
@@ -3763,13 +3766,13 @@
         <v>59</v>
       </c>
       <c r="B16">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C16">
         <v>165</v>
       </c>
       <c r="D16">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3793,7 +3796,7 @@
         <v>48</v>
       </c>
       <c r="L16">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M16">
         <v>188</v>
@@ -3805,7 +3808,7 @@
         <v>10</v>
       </c>
       <c r="P16">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3813,13 +3816,13 @@
         <v>60</v>
       </c>
       <c r="B17">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C17">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D17">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E17">
         <v>466</v>
@@ -3831,7 +3834,7 @@
         <v>89</v>
       </c>
       <c r="H17">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -3863,13 +3866,13 @@
         <v>61</v>
       </c>
       <c r="B18">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="C18">
         <v>953</v>
       </c>
       <c r="D18">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="E18">
         <v>13</v>
@@ -3887,7 +3890,7 @@
         <v>293</v>
       </c>
       <c r="J18">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18">
         <v>12</v>
@@ -3896,16 +3899,16 @@
         <v>253</v>
       </c>
       <c r="M18">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P18">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -3913,10 +3916,10 @@
         <v>62</v>
       </c>
       <c r="B19">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C19">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D19">
         <v>1162</v>
@@ -3931,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4013,10 +4016,10 @@
         <v>64</v>
       </c>
       <c r="B21">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C21">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D21">
         <v>1486</v>
@@ -4031,7 +4034,7 @@
         <v>257</v>
       </c>
       <c r="H21">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>47</v>
@@ -4363,13 +4366,13 @@
         <v>71</v>
       </c>
       <c r="B28">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C28">
         <v>118</v>
       </c>
       <c r="D28">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4387,7 +4390,7 @@
         <v>22</v>
       </c>
       <c r="J28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -5273,34 +5276,34 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>778099</v>
+        <v>777818</v>
       </c>
       <c r="C2">
-        <v>406339</v>
+        <v>406297</v>
       </c>
       <c r="D2">
-        <v>371760</v>
+        <v>371521</v>
       </c>
       <c r="E2">
-        <v>116919</v>
+        <v>116891</v>
       </c>
       <c r="F2">
-        <v>29525</v>
+        <v>29523</v>
       </c>
       <c r="G2">
-        <v>90110</v>
+        <v>90108</v>
       </c>
       <c r="H2">
-        <v>96352</v>
+        <v>96343</v>
       </c>
       <c r="I2">
-        <v>73433</v>
+        <v>73432</v>
       </c>
       <c r="J2">
-        <v>95001</v>
+        <v>94971</v>
       </c>
       <c r="K2">
-        <v>31677</v>
+        <v>31684</v>
       </c>
       <c r="L2">
         <v>7738</v>
@@ -5312,10 +5315,10 @@
         <v>496</v>
       </c>
       <c r="O2">
-        <v>95209</v>
+        <v>95191</v>
       </c>
       <c r="P2">
-        <v>141499</v>
+        <v>141301</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5323,34 +5326,34 @@
         <v>88</v>
       </c>
       <c r="B3">
-        <v>183158</v>
+        <v>183178</v>
       </c>
       <c r="C3">
-        <v>95430</v>
+        <v>95431</v>
       </c>
       <c r="D3">
-        <v>87728</v>
+        <v>87747</v>
       </c>
       <c r="E3">
-        <v>50168</v>
+        <v>50166</v>
       </c>
       <c r="F3">
-        <v>7283</v>
+        <v>7284</v>
       </c>
       <c r="G3">
-        <v>18411</v>
+        <v>18410</v>
       </c>
       <c r="H3">
         <v>5662</v>
       </c>
       <c r="I3">
-        <v>13906</v>
+        <v>13909</v>
       </c>
       <c r="J3">
         <v>1028</v>
       </c>
       <c r="K3">
-        <v>6047</v>
+        <v>6048</v>
       </c>
       <c r="L3">
         <v>557</v>
@@ -5362,7 +5365,7 @@
         <v>157</v>
       </c>
       <c r="O3">
-        <v>72149</v>
+        <v>72167</v>
       </c>
       <c r="P3">
         <v>7780</v>
@@ -5373,13 +5376,13 @@
         <v>89</v>
       </c>
       <c r="B4">
-        <v>172220</v>
+        <v>172219</v>
       </c>
       <c r="C4">
-        <v>159717</v>
+        <v>159712</v>
       </c>
       <c r="D4">
-        <v>12503</v>
+        <v>12507</v>
       </c>
       <c r="E4">
         <v>16528</v>
@@ -5388,19 +5391,19 @@
         <v>16190</v>
       </c>
       <c r="G4">
-        <v>77301</v>
+        <v>77297</v>
       </c>
       <c r="H4">
         <v>6844</v>
       </c>
       <c r="I4">
-        <v>42854</v>
+        <v>42853</v>
       </c>
       <c r="J4">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="K4">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L4">
         <v>241</v>
@@ -5412,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9759</v>
+        <v>9757</v>
       </c>
       <c r="P4">
         <v>90</v>
@@ -5423,37 +5426,37 @@
         <v>90</v>
       </c>
       <c r="B5">
-        <v>124388</v>
+        <v>124481</v>
       </c>
       <c r="C5">
-        <v>50990</v>
+        <v>50940</v>
       </c>
       <c r="D5">
-        <v>73398</v>
+        <v>73541</v>
       </c>
       <c r="E5">
-        <v>3731</v>
+        <v>3732</v>
       </c>
       <c r="F5">
         <v>1123</v>
       </c>
       <c r="G5">
-        <v>17979</v>
+        <v>17977</v>
       </c>
       <c r="H5">
-        <v>25499</v>
+        <v>25451</v>
       </c>
       <c r="I5">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="J5">
-        <v>22863</v>
+        <v>22860</v>
       </c>
       <c r="K5">
-        <v>4318</v>
+        <v>4447</v>
       </c>
       <c r="L5">
-        <v>9782</v>
+        <v>9778</v>
       </c>
       <c r="M5">
         <v>941</v>
@@ -5462,7 +5465,7 @@
         <v>481</v>
       </c>
       <c r="O5">
-        <v>25958</v>
+        <v>25979</v>
       </c>
       <c r="P5">
         <v>9055</v>
@@ -5473,13 +5476,13 @@
         <v>48</v>
       </c>
       <c r="B6">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C6">
         <v>337</v>
       </c>
       <c r="D6">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5497,13 +5500,13 @@
         <v>232</v>
       </c>
       <c r="J6">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K6">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L6">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M6">
         <v>2633</v>
@@ -5515,7 +5518,7 @@
         <v>2</v>
       </c>
       <c r="P6">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5523,13 +5526,13 @@
         <v>91</v>
       </c>
       <c r="B7">
-        <v>68535</v>
+        <v>68538</v>
       </c>
       <c r="C7">
         <v>35831</v>
       </c>
       <c r="D7">
-        <v>32704</v>
+        <v>32707</v>
       </c>
       <c r="E7">
         <v>1988</v>
@@ -5550,7 +5553,7 @@
         <v>7594</v>
       </c>
       <c r="K7">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L7">
         <v>12364</v>
@@ -5565,7 +5568,7 @@
         <v>2187</v>
       </c>
       <c r="P7">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5573,13 +5576,13 @@
         <v>92</v>
       </c>
       <c r="B8">
-        <v>42228</v>
+        <v>42432</v>
       </c>
       <c r="C8">
-        <v>17220</v>
+        <v>17208</v>
       </c>
       <c r="D8">
-        <v>25008</v>
+        <v>25224</v>
       </c>
       <c r="E8">
         <v>1443</v>
@@ -5588,34 +5591,34 @@
         <v>665</v>
       </c>
       <c r="G8">
-        <v>6293</v>
+        <v>6291</v>
       </c>
       <c r="H8">
-        <v>7971</v>
+        <v>7960</v>
       </c>
       <c r="I8">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="J8">
-        <v>14055</v>
+        <v>14047</v>
       </c>
       <c r="K8">
-        <v>1966</v>
+        <v>2233</v>
       </c>
       <c r="L8">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="M8">
         <v>329</v>
       </c>
       <c r="N8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>1064</v>
       </c>
       <c r="P8">
-        <v>5435</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5623,19 +5626,19 @@
         <v>93</v>
       </c>
       <c r="B9">
-        <v>38229</v>
+        <v>38226</v>
       </c>
       <c r="C9">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D9">
-        <v>33512</v>
+        <v>33510</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -5653,19 +5656,19 @@
         <v>1774</v>
       </c>
       <c r="L9">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>307</v>
       </c>
       <c r="O9">
-        <v>11966</v>
+        <v>11965</v>
       </c>
       <c r="P9">
-        <v>11113</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5673,13 +5676,13 @@
         <v>94</v>
       </c>
       <c r="B10">
-        <v>36058</v>
+        <v>36079</v>
       </c>
       <c r="C10">
-        <v>10551</v>
+        <v>10564</v>
       </c>
       <c r="D10">
-        <v>25507</v>
+        <v>25515</v>
       </c>
       <c r="E10">
         <v>433</v>
@@ -5688,10 +5691,10 @@
         <v>1878</v>
       </c>
       <c r="G10">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="H10">
-        <v>3497</v>
+        <v>3508</v>
       </c>
       <c r="I10">
         <v>4229</v>
@@ -5700,7 +5703,7 @@
         <v>5360</v>
       </c>
       <c r="K10">
-        <v>1533</v>
+        <v>1544</v>
       </c>
       <c r="L10">
         <v>2157</v>
@@ -5715,7 +5718,7 @@
         <v>2331</v>
       </c>
       <c r="P10">
-        <v>13412</v>
+        <v>13409</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5723,16 +5726,16 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C11">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D11">
         <v>2207</v>
       </c>
       <c r="E11">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -5773,10 +5776,10 @@
         <v>96</v>
       </c>
       <c r="B12">
-        <v>26828</v>
+        <v>26829</v>
       </c>
       <c r="C12">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="D12">
         <v>25313</v>
@@ -5791,7 +5794,7 @@
         <v>201</v>
       </c>
       <c r="H12">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="I12">
         <v>189</v>
@@ -5823,19 +5826,19 @@
         <v>97</v>
       </c>
       <c r="B13">
-        <v>19994</v>
+        <v>19991</v>
       </c>
       <c r="C13">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D13">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="E13">
         <v>5919</v>
       </c>
       <c r="F13">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13">
         <v>6254</v>
@@ -5862,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6574</v>
+        <v>6572</v>
       </c>
       <c r="P13">
         <v>142</v>
@@ -5873,13 +5876,13 @@
         <v>98</v>
       </c>
       <c r="B14">
-        <v>17576</v>
+        <v>17577</v>
       </c>
       <c r="C14">
-        <v>11442</v>
+        <v>11444</v>
       </c>
       <c r="D14">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="E14">
         <v>261</v>
@@ -5888,10 +5891,10 @@
         <v>118</v>
       </c>
       <c r="G14">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H14">
-        <v>9694</v>
+        <v>9695</v>
       </c>
       <c r="I14">
         <v>654</v>
@@ -5915,7 +5918,7 @@
         <v>1210</v>
       </c>
       <c r="P14">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -5923,13 +5926,13 @@
         <v>99</v>
       </c>
       <c r="B15">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C15">
         <v>173</v>
       </c>
       <c r="D15">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5953,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M15">
         <v>250</v>
@@ -5973,13 +5976,13 @@
         <v>100</v>
       </c>
       <c r="B16">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C16">
         <v>53</v>
       </c>
       <c r="D16">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -6015,7 +6018,7 @@
         <v>246</v>
       </c>
       <c r="P16">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -6123,13 +6126,13 @@
         <v>102</v>
       </c>
       <c r="B19">
-        <v>4629</v>
+        <v>4619</v>
       </c>
       <c r="C19">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D19">
-        <v>1472</v>
+        <v>1463</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6138,7 +6141,7 @@
         <v>197</v>
       </c>
       <c r="G19">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="H19">
         <v>81</v>
@@ -6162,7 +6165,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -6173,13 +6176,13 @@
         <v>103</v>
       </c>
       <c r="B20">
-        <v>4618</v>
+        <v>4616</v>
       </c>
       <c r="C20">
         <v>93</v>
       </c>
       <c r="D20">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="E20">
         <v>34</v>
@@ -6197,10 +6200,10 @@
         <v>11</v>
       </c>
       <c r="J20">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K20">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L20">
         <v>62</v>
@@ -6223,16 +6226,16 @@
         <v>104</v>
       </c>
       <c r="B21">
-        <v>4601</v>
+        <v>4562</v>
       </c>
       <c r="C21">
-        <v>2959</v>
+        <v>2920</v>
       </c>
       <c r="D21">
         <v>1642</v>
       </c>
       <c r="E21">
-        <v>1919</v>
+        <v>1880</v>
       </c>
       <c r="F21">
         <v>117</v>
@@ -6273,13 +6276,13 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C22">
         <v>165</v>
       </c>
       <c r="D22">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -6303,7 +6306,7 @@
         <v>48</v>
       </c>
       <c r="L22">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M22">
         <v>188</v>
@@ -6315,7 +6318,7 @@
         <v>10</v>
       </c>
       <c r="P22">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -6323,13 +6326,13 @@
         <v>105</v>
       </c>
       <c r="B23">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C23">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D23">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E23">
         <v>466</v>
@@ -6341,7 +6344,7 @@
         <v>89</v>
       </c>
       <c r="H23">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I23">
         <v>100</v>
@@ -6365,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -6373,10 +6376,10 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C24">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D24">
         <v>1162</v>
@@ -6391,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -6473,10 +6476,10 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="C26">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D26">
         <v>1486</v>
@@ -6491,7 +6494,7 @@
         <v>257</v>
       </c>
       <c r="H26">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I26">
         <v>47</v>
@@ -6623,10 +6626,10 @@
         <v>111</v>
       </c>
       <c r="B29">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C29">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D29">
         <v>542</v>
@@ -6644,7 +6647,7 @@
         <v>342</v>
       </c>
       <c r="I29">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J29">
         <v>32</v>
@@ -6873,13 +6876,13 @@
         <v>113</v>
       </c>
       <c r="B34">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C34">
         <v>180</v>
       </c>
       <c r="D34">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E34">
         <v>33</v>
@@ -6912,7 +6915,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P34">
         <v>6</v>
@@ -6923,10 +6926,10 @@
         <v>114</v>
       </c>
       <c r="B35">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C35">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D35">
         <v>780</v>
@@ -6941,7 +6944,7 @@
         <v>139</v>
       </c>
       <c r="H35">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I35">
         <v>21</v>
@@ -6973,13 +6976,13 @@
         <v>115</v>
       </c>
       <c r="B36">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C36">
         <v>109</v>
       </c>
       <c r="D36">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="E36">
         <v>13</v>
@@ -6997,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K36">
         <v>12</v>
@@ -7006,16 +7009,16 @@
         <v>224</v>
       </c>
       <c r="M36">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N36">
         <v>0</v>
       </c>
       <c r="O36">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P36">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -7173,13 +7176,13 @@
         <v>119</v>
       </c>
       <c r="B40">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
       <c r="D40">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7206,16 +7209,16 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N40">
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -7923,13 +7926,13 @@
         <v>134</v>
       </c>
       <c r="B55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>15</v>
       </c>
       <c r="D55">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -7947,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="J55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -8525,7 +8528,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P138"/>
+  <dimension ref="A1:P139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8583,34 +8586,34 @@
         <v>87</v>
       </c>
       <c r="B2">
-        <v>768520</v>
+        <v>768240</v>
       </c>
       <c r="C2">
-        <v>397124</v>
+        <v>397083</v>
       </c>
       <c r="D2">
-        <v>371396</v>
+        <v>371157</v>
       </c>
       <c r="E2">
-        <v>113804</v>
+        <v>113776</v>
       </c>
       <c r="F2">
-        <v>29127</v>
+        <v>29126</v>
       </c>
       <c r="G2">
-        <v>87040</v>
+        <v>87038</v>
       </c>
       <c r="H2">
-        <v>95368</v>
+        <v>95359</v>
       </c>
       <c r="I2">
-        <v>71785</v>
+        <v>71784</v>
       </c>
       <c r="J2">
-        <v>94790</v>
+        <v>94760</v>
       </c>
       <c r="K2">
-        <v>31562</v>
+        <v>31569</v>
       </c>
       <c r="L2">
         <v>7700</v>
@@ -8622,10 +8625,10 @@
         <v>496</v>
       </c>
       <c r="O2">
-        <v>95209</v>
+        <v>95191</v>
       </c>
       <c r="P2">
-        <v>141499</v>
+        <v>141301</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8633,13 +8636,13 @@
         <v>145</v>
       </c>
       <c r="B3">
-        <v>172220</v>
+        <v>172219</v>
       </c>
       <c r="C3">
-        <v>159717</v>
+        <v>159712</v>
       </c>
       <c r="D3">
-        <v>12503</v>
+        <v>12507</v>
       </c>
       <c r="E3">
         <v>16528</v>
@@ -8648,19 +8651,19 @@
         <v>16190</v>
       </c>
       <c r="G3">
-        <v>77301</v>
+        <v>77297</v>
       </c>
       <c r="H3">
         <v>6844</v>
       </c>
       <c r="I3">
-        <v>42854</v>
+        <v>42853</v>
       </c>
       <c r="J3">
-        <v>1591</v>
+        <v>1596</v>
       </c>
       <c r="K3">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L3">
         <v>241</v>
@@ -8672,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9759</v>
+        <v>9757</v>
       </c>
       <c r="P3">
         <v>90</v>
@@ -8683,49 +8686,49 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>72978</v>
+        <v>73003</v>
       </c>
       <c r="C4">
-        <v>29321</v>
+        <v>29269</v>
       </c>
       <c r="D4">
-        <v>43657</v>
+        <v>43734</v>
       </c>
       <c r="E4">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="F4">
         <v>542</v>
       </c>
       <c r="G4">
-        <v>13863</v>
+        <v>13859</v>
       </c>
       <c r="H4">
-        <v>11148</v>
+        <v>11098</v>
       </c>
       <c r="I4">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J4">
-        <v>20766</v>
+        <v>20757</v>
       </c>
       <c r="K4">
-        <v>3650</v>
+        <v>3729</v>
       </c>
       <c r="L4">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="M4">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="N4">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="O4">
-        <v>7578</v>
+        <v>7583</v>
       </c>
       <c r="P4">
-        <v>6664</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8733,13 +8736,13 @@
         <v>48</v>
       </c>
       <c r="B5">
-        <v>72606</v>
+        <v>72512</v>
       </c>
       <c r="C5">
         <v>337</v>
       </c>
       <c r="D5">
-        <v>72269</v>
+        <v>72175</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8757,13 +8760,13 @@
         <v>232</v>
       </c>
       <c r="J5">
-        <v>12540</v>
+        <v>12537</v>
       </c>
       <c r="K5">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="L5">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M5">
         <v>2633</v>
@@ -8775,7 +8778,7 @@
         <v>2</v>
       </c>
       <c r="P5">
-        <v>50591</v>
+        <v>50499</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8783,13 +8786,13 @@
         <v>146</v>
       </c>
       <c r="B6">
-        <v>68535</v>
+        <v>68538</v>
       </c>
       <c r="C6">
         <v>35831</v>
       </c>
       <c r="D6">
-        <v>32704</v>
+        <v>32707</v>
       </c>
       <c r="E6">
         <v>1988</v>
@@ -8810,7 +8813,7 @@
         <v>7594</v>
       </c>
       <c r="K6">
-        <v>2825</v>
+        <v>2829</v>
       </c>
       <c r="L6">
         <v>12364</v>
@@ -8825,7 +8828,7 @@
         <v>2187</v>
       </c>
       <c r="P6">
-        <v>4350</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8833,13 +8836,13 @@
         <v>147</v>
       </c>
       <c r="B7">
-        <v>66102</v>
+        <v>66130</v>
       </c>
       <c r="C7">
-        <v>54763</v>
+        <v>54764</v>
       </c>
       <c r="D7">
-        <v>11339</v>
+        <v>11366</v>
       </c>
       <c r="E7">
         <v>19991</v>
@@ -8854,13 +8857,13 @@
         <v>4559</v>
       </c>
       <c r="I7">
-        <v>9667</v>
+        <v>9668</v>
       </c>
       <c r="J7">
         <v>494</v>
       </c>
       <c r="K7">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="L7">
         <v>26</v>
@@ -8872,7 +8875,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9646</v>
+        <v>9672</v>
       </c>
       <c r="P7">
         <v>269</v>
@@ -8892,19 +8895,19 @@
         <v>7801</v>
       </c>
       <c r="E8">
-        <v>30177</v>
+        <v>30175</v>
       </c>
       <c r="F8">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="G8">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="H8">
         <v>1103</v>
       </c>
       <c r="I8">
-        <v>4239</v>
+        <v>4241</v>
       </c>
       <c r="J8">
         <v>534</v>
@@ -8933,19 +8936,19 @@
         <v>93</v>
       </c>
       <c r="B9">
-        <v>38229</v>
+        <v>38226</v>
       </c>
       <c r="C9">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="D9">
-        <v>33512</v>
+        <v>33510</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -8963,19 +8966,19 @@
         <v>1774</v>
       </c>
       <c r="L9">
-        <v>4926</v>
+        <v>4925</v>
       </c>
       <c r="M9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N9">
         <v>307</v>
       </c>
       <c r="O9">
-        <v>11966</v>
+        <v>11965</v>
       </c>
       <c r="P9">
-        <v>11113</v>
+        <v>11114</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8983,16 +8986,16 @@
         <v>149</v>
       </c>
       <c r="B10">
-        <v>34171</v>
+        <v>34170</v>
       </c>
       <c r="C10">
-        <v>31964</v>
+        <v>31963</v>
       </c>
       <c r="D10">
         <v>2207</v>
       </c>
       <c r="E10">
-        <v>31909</v>
+        <v>31908</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -9033,13 +9036,13 @@
         <v>150</v>
       </c>
       <c r="B11">
-        <v>31423</v>
+        <v>31424</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31423</v>
+        <v>31424</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -9072,7 +9075,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>31198</v>
+        <v>31199</v>
       </c>
       <c r="P11">
         <v>225</v>
@@ -9133,13 +9136,13 @@
         <v>152</v>
       </c>
       <c r="B13">
-        <v>30751</v>
+        <v>30754</v>
       </c>
       <c r="C13">
-        <v>20279</v>
+        <v>20281</v>
       </c>
       <c r="D13">
-        <v>10472</v>
+        <v>10473</v>
       </c>
       <c r="E13">
         <v>76</v>
@@ -9151,16 +9154,16 @@
         <v>6516</v>
       </c>
       <c r="H13">
-        <v>11369</v>
+        <v>11371</v>
       </c>
       <c r="I13">
         <v>1673</v>
       </c>
       <c r="J13">
-        <v>5502</v>
+        <v>5504</v>
       </c>
       <c r="K13">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="L13">
         <v>818</v>
@@ -9183,13 +9186,13 @@
         <v>153</v>
       </c>
       <c r="B14">
-        <v>23289</v>
+        <v>23300</v>
       </c>
       <c r="C14">
         <v>6966</v>
       </c>
       <c r="D14">
-        <v>16323</v>
+        <v>16334</v>
       </c>
       <c r="E14">
         <v>274</v>
@@ -9210,7 +9213,7 @@
         <v>2470</v>
       </c>
       <c r="K14">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="L14">
         <v>929</v>
@@ -9233,13 +9236,13 @@
         <v>73</v>
       </c>
       <c r="B15">
-        <v>20353</v>
+        <v>20576</v>
       </c>
       <c r="C15">
-        <v>8623</v>
+        <v>8625</v>
       </c>
       <c r="D15">
-        <v>11730</v>
+        <v>11951</v>
       </c>
       <c r="E15">
         <v>668</v>
@@ -9251,7 +9254,7 @@
         <v>583</v>
       </c>
       <c r="H15">
-        <v>6792</v>
+        <v>6794</v>
       </c>
       <c r="I15">
         <v>279</v>
@@ -9260,7 +9263,7 @@
         <v>7280</v>
       </c>
       <c r="K15">
-        <v>1052</v>
+        <v>1273</v>
       </c>
       <c r="L15">
         <v>238</v>
@@ -9283,19 +9286,19 @@
         <v>154</v>
       </c>
       <c r="B16">
-        <v>19994</v>
+        <v>19991</v>
       </c>
       <c r="C16">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D16">
-        <v>7039</v>
+        <v>7037</v>
       </c>
       <c r="E16">
         <v>5919</v>
       </c>
       <c r="F16">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <v>6254</v>
@@ -9322,7 +9325,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6574</v>
+        <v>6572</v>
       </c>
       <c r="P16">
         <v>142</v>
@@ -9333,13 +9336,13 @@
         <v>155</v>
       </c>
       <c r="B17">
-        <v>17576</v>
+        <v>17577</v>
       </c>
       <c r="C17">
-        <v>11442</v>
+        <v>11444</v>
       </c>
       <c r="D17">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="E17">
         <v>261</v>
@@ -9348,10 +9351,10 @@
         <v>118</v>
       </c>
       <c r="G17">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H17">
-        <v>9694</v>
+        <v>9695</v>
       </c>
       <c r="I17">
         <v>654</v>
@@ -9375,7 +9378,7 @@
         <v>1210</v>
       </c>
       <c r="P17">
-        <v>2172</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9433,13 +9436,13 @@
         <v>157</v>
       </c>
       <c r="B19">
-        <v>14676</v>
+        <v>14759</v>
       </c>
       <c r="C19">
-        <v>7090</v>
+        <v>7087</v>
       </c>
       <c r="D19">
-        <v>7586</v>
+        <v>7672</v>
       </c>
       <c r="E19">
         <v>1080</v>
@@ -9451,7 +9454,7 @@
         <v>733</v>
       </c>
       <c r="H19">
-        <v>4700</v>
+        <v>4697</v>
       </c>
       <c r="I19">
         <v>385</v>
@@ -9460,10 +9463,10 @@
         <v>3078</v>
       </c>
       <c r="K19">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="L19">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="M19">
         <v>45</v>
@@ -9483,13 +9486,13 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>10620</v>
+        <v>10617</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
-        <v>10595</v>
+        <v>10593</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -9504,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20">
         <v>97</v>
@@ -9522,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10240</v>
+        <v>10238</v>
       </c>
       <c r="P20">
         <v>158</v>
@@ -9533,10 +9536,10 @@
         <v>159</v>
       </c>
       <c r="B21">
-        <v>9579</v>
+        <v>9578</v>
       </c>
       <c r="C21">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="D21">
         <v>364</v>
@@ -9545,7 +9548,7 @@
         <v>3115</v>
       </c>
       <c r="F21">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G21">
         <v>3070</v>
@@ -9583,13 +9586,13 @@
         <v>160</v>
       </c>
       <c r="B22">
-        <v>7198</v>
+        <v>7197</v>
       </c>
       <c r="C22">
         <v>1590</v>
       </c>
       <c r="D22">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -9622,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="P22">
         <v>23</v>
@@ -9633,13 +9636,13 @@
         <v>161</v>
       </c>
       <c r="B23">
-        <v>7158</v>
+        <v>7159</v>
       </c>
       <c r="C23">
         <v>173</v>
       </c>
       <c r="D23">
-        <v>6985</v>
+        <v>6986</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9663,7 +9666,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M23">
         <v>250</v>
@@ -9683,13 +9686,13 @@
         <v>162</v>
       </c>
       <c r="B24">
-        <v>7136</v>
+        <v>7137</v>
       </c>
       <c r="C24">
         <v>53</v>
       </c>
       <c r="D24">
-        <v>7083</v>
+        <v>7084</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -9725,7 +9728,7 @@
         <v>246</v>
       </c>
       <c r="P24">
-        <v>5912</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9733,10 +9736,10 @@
         <v>163</v>
       </c>
       <c r="B25">
-        <v>5867</v>
+        <v>5868</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <v>5829</v>
@@ -9751,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -9883,13 +9886,13 @@
         <v>166</v>
       </c>
       <c r="B28">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9922,7 +9925,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <v>4891</v>
+        <v>4883</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -9933,16 +9936,16 @@
         <v>167</v>
       </c>
       <c r="B29">
-        <v>4601</v>
+        <v>4562</v>
       </c>
       <c r="C29">
-        <v>2959</v>
+        <v>2920</v>
       </c>
       <c r="D29">
         <v>1642</v>
       </c>
       <c r="E29">
-        <v>1919</v>
+        <v>1880</v>
       </c>
       <c r="F29">
         <v>117</v>
@@ -10033,10 +10036,10 @@
         <v>169</v>
       </c>
       <c r="B31">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="C31">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="D31">
         <v>1369</v>
@@ -10048,7 +10051,7 @@
         <v>197</v>
       </c>
       <c r="G31">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="H31">
         <v>81</v>
@@ -10083,13 +10086,13 @@
         <v>170</v>
       </c>
       <c r="B32">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="C32">
         <v>72</v>
       </c>
       <c r="D32">
-        <v>4439</v>
+        <v>4437</v>
       </c>
       <c r="E32">
         <v>34</v>
@@ -10107,10 +10110,10 @@
         <v>11</v>
       </c>
       <c r="J32">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K32">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L32">
         <v>62</v>
@@ -10133,13 +10136,13 @@
         <v>59</v>
       </c>
       <c r="B33">
-        <v>4197</v>
+        <v>4174</v>
       </c>
       <c r="C33">
         <v>165</v>
       </c>
       <c r="D33">
-        <v>4032</v>
+        <v>4009</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -10163,7 +10166,7 @@
         <v>48</v>
       </c>
       <c r="L33">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="M33">
         <v>188</v>
@@ -10175,7 +10178,7 @@
         <v>10</v>
       </c>
       <c r="P33">
-        <v>1764</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10183,13 +10186,13 @@
         <v>171</v>
       </c>
       <c r="B34">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="C34">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="D34">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E34">
         <v>466</v>
@@ -10201,7 +10204,7 @@
         <v>89</v>
       </c>
       <c r="H34">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I34">
         <v>100</v>
@@ -10225,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10333,10 +10336,10 @@
         <v>174</v>
       </c>
       <c r="B37">
-        <v>3204</v>
+        <v>3206</v>
       </c>
       <c r="C37">
-        <v>1797</v>
+        <v>1799</v>
       </c>
       <c r="D37">
         <v>1407</v>
@@ -10348,7 +10351,7 @@
         <v>261</v>
       </c>
       <c r="G37">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H37">
         <v>969</v>
@@ -10383,10 +10386,10 @@
         <v>175</v>
       </c>
       <c r="B38">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C38">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D38">
         <v>1162</v>
@@ -10401,7 +10404,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -10583,13 +10586,13 @@
         <v>179</v>
       </c>
       <c r="B42">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -10625,7 +10628,7 @@
         <v>0</v>
       </c>
       <c r="P42">
-        <v>1077</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -10683,10 +10686,10 @@
         <v>180</v>
       </c>
       <c r="B44">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C44">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D44">
         <v>542</v>
@@ -10704,7 +10707,7 @@
         <v>342</v>
       </c>
       <c r="I44">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J44">
         <v>32</v>
@@ -10933,13 +10936,13 @@
         <v>183</v>
       </c>
       <c r="B49">
-        <v>1227</v>
+        <v>1184</v>
       </c>
       <c r="C49">
         <v>902</v>
       </c>
       <c r="D49">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E49">
         <v>138</v>
@@ -10957,7 +10960,7 @@
         <v>149</v>
       </c>
       <c r="J49">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -10975,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="P49">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -11133,19 +11136,19 @@
         <v>187</v>
       </c>
       <c r="B53">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="D53">
-        <v>785</v>
+        <v>587</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -11154,16 +11157,16 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -11172,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -11183,19 +11186,19 @@
         <v>188</v>
       </c>
       <c r="B54">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="C54">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>577</v>
+        <v>784</v>
       </c>
       <c r="E54">
         <v>0</v>
       </c>
       <c r="F54">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -11204,16 +11207,16 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -11222,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="P54">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -11233,13 +11236,13 @@
         <v>189</v>
       </c>
       <c r="B55">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C55">
         <v>228</v>
       </c>
       <c r="D55">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -11257,7 +11260,7 @@
         <v>62</v>
       </c>
       <c r="J55">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K55">
         <v>127</v>
@@ -11333,13 +11336,13 @@
         <v>191</v>
       </c>
       <c r="B57">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C57">
         <v>603</v>
       </c>
       <c r="D57">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>592</v>
@@ -11363,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -11583,13 +11586,13 @@
         <v>196</v>
       </c>
       <c r="B62">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C62">
         <v>13</v>
       </c>
       <c r="D62">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E62">
         <v>13</v>
@@ -11607,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="J62">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -11622,10 +11625,10 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P62">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -11883,13 +11886,13 @@
         <v>202</v>
       </c>
       <c r="B68">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -11916,7 +11919,7 @@
         <v>17</v>
       </c>
       <c r="M68">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N68">
         <v>0</v>
@@ -13083,10 +13086,10 @@
         <v>225</v>
       </c>
       <c r="B92">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C92">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D92">
         <v>58</v>
@@ -13101,7 +13104,7 @@
         <v>11</v>
       </c>
       <c r="H92">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -13133,13 +13136,13 @@
         <v>226</v>
       </c>
       <c r="B93">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D93">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -13148,22 +13151,22 @@
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M93">
         <v>0</v>
@@ -13172,10 +13175,10 @@
         <v>0</v>
       </c>
       <c r="O93">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -13186,10 +13189,10 @@
         <v>100</v>
       </c>
       <c r="C94">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D94">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -13198,22 +13201,22 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H94">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K94">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L94">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="M94">
         <v>0</v>
@@ -13225,7 +13228,7 @@
         <v>0</v>
       </c>
       <c r="P94">
-        <v>6</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -13233,28 +13236,28 @@
         <v>228</v>
       </c>
       <c r="B95">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C95">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="D95">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -13275,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="P95">
-        <v>82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -13283,31 +13286,31 @@
         <v>229</v>
       </c>
       <c r="B96">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C96">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E96">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -13325,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -13333,13 +13336,13 @@
         <v>230</v>
       </c>
       <c r="B97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D97">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -13348,16 +13351,16 @@
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -13375,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="P97">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -13383,13 +13386,13 @@
         <v>231</v>
       </c>
       <c r="B98">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C98">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -13398,10 +13401,10 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -13422,7 +13425,7 @@
         <v>0</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -13833,13 +13836,13 @@
         <v>90</v>
       </c>
       <c r="B107">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -13872,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="O107">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P107">
         <v>0</v>
@@ -13945,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -13954,7 +13957,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -13995,16 +13998,16 @@
         <v>0</v>
       </c>
       <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
         <v>55</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -14033,13 +14036,13 @@
         <v>243</v>
       </c>
       <c r="B111">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C111">
         <v>15</v>
       </c>
       <c r="D111">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -14057,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -14236,11 +14239,11 @@
         <v>34</v>
       </c>
       <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
         <v>34</v>
       </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
       <c r="E115">
         <v>0</v>
       </c>
@@ -14248,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -14257,7 +14260,7 @@
         <v>0</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -14275,7 +14278,7 @@
         <v>0</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -14286,20 +14289,20 @@
         <v>34</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
         <v>34</v>
       </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
       <c r="H116">
         <v>0</v>
       </c>
@@ -14322,10 +14325,10 @@
         <v>0</v>
       </c>
       <c r="O116">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P116">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -14357,7 +14360,7 @@
         <v>0</v>
       </c>
       <c r="J117">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -14372,10 +14375,10 @@
         <v>0</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P117">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -14586,20 +14589,20 @@
         <v>27</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
         <v>27</v>
       </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
       <c r="H122">
         <v>0</v>
       </c>
@@ -14607,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="J122">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -14636,11 +14639,11 @@
         <v>27</v>
       </c>
       <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
         <v>27</v>
       </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
       <c r="E123">
         <v>0</v>
       </c>
@@ -14648,16 +14651,16 @@
         <v>0</v>
       </c>
       <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
         <v>27</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123">
-        <v>0</v>
-      </c>
-      <c r="J123">
-        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -14822,10 +14825,10 @@
         <v>0</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="P126">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -14833,13 +14836,13 @@
         <v>257</v>
       </c>
       <c r="B127">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -14872,10 +14875,10 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="P127">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -14883,13 +14886,13 @@
         <v>258</v>
       </c>
       <c r="B128">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -14922,10 +14925,10 @@
         <v>0</v>
       </c>
       <c r="O128">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P128">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -14972,10 +14975,10 @@
         <v>0</v>
       </c>
       <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
         <v>19</v>
-      </c>
-      <c r="P129">
-        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -14983,13 +14986,13 @@
         <v>260</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C130">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -14998,7 +15001,7 @@
         <v>0</v>
       </c>
       <c r="G130">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -15022,7 +15025,7 @@
         <v>0</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="P130">
         <v>0</v>
@@ -15083,13 +15086,13 @@
         <v>262</v>
       </c>
       <c r="B132">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D132">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -15098,7 +15101,7 @@
         <v>0</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -15116,7 +15119,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -15166,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -15175,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="P133">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -15183,13 +15186,13 @@
         <v>264</v>
       </c>
       <c r="B134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C134">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -15198,7 +15201,7 @@
         <v>0</v>
       </c>
       <c r="G134">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -15225,7 +15228,7 @@
         <v>0</v>
       </c>
       <c r="P134">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -15233,10 +15236,10 @@
         <v>265</v>
       </c>
       <c r="B135">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C135">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -15248,10 +15251,10 @@
         <v>0</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H135">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -15283,16 +15286,16 @@
         <v>266</v>
       </c>
       <c r="B136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -15301,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -15333,16 +15336,16 @@
         <v>267</v>
       </c>
       <c r="B137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -15363,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="L137">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M137">
         <v>0</v>
@@ -15380,51 +15383,101 @@
     </row>
     <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B138">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>7</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="A139" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B138">
+      <c r="B139">
         <v>4</v>
       </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
         <v>4</v>
       </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-      <c r="I138">
-        <v>0</v>
-      </c>
-      <c r="J138">
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
         <v>4</v>
       </c>
-      <c r="K138">
-        <v>0</v>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-      <c r="M138">
-        <v>0</v>
-      </c>
-      <c r="N138">
-        <v>0</v>
-      </c>
-      <c r="O138">
-        <v>0</v>
-      </c>
-      <c r="P138">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
         <v>0</v>
       </c>
     </row>
@@ -15490,52 +15543,52 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B2">
-        <v>873985</v>
+        <v>873798</v>
       </c>
       <c r="C2">
-        <v>447779</v>
+        <v>447753</v>
       </c>
       <c r="D2">
-        <v>426206</v>
+        <v>426045</v>
       </c>
       <c r="E2">
-        <v>142881</v>
+        <v>142863</v>
       </c>
       <c r="F2">
-        <v>25581</v>
+        <v>25580</v>
       </c>
       <c r="G2">
         <v>102938</v>
       </c>
       <c r="H2">
-        <v>100430</v>
+        <v>100419</v>
       </c>
       <c r="I2">
-        <v>75949</v>
+        <v>75953</v>
       </c>
       <c r="J2">
-        <v>86248</v>
+        <v>86194</v>
       </c>
       <c r="K2">
-        <v>33890</v>
+        <v>33995</v>
       </c>
       <c r="L2">
-        <v>17289</v>
+        <v>17271</v>
       </c>
       <c r="M2">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="N2">
         <v>712</v>
       </c>
       <c r="O2">
-        <v>123115</v>
+        <v>123116</v>
       </c>
       <c r="P2">
-        <v>161978</v>
+        <v>161784</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -15543,60 +15596,60 @@
         <v>55</v>
       </c>
       <c r="B3">
-        <v>546349</v>
+        <v>546306</v>
       </c>
       <c r="C3">
-        <v>219238</v>
+        <v>219122</v>
       </c>
       <c r="D3">
-        <v>327111</v>
+        <v>327184</v>
       </c>
       <c r="E3">
-        <v>82560</v>
+        <v>82511</v>
       </c>
       <c r="F3">
-        <v>17784</v>
+        <v>17783</v>
       </c>
       <c r="G3">
-        <v>41146</v>
+        <v>41141</v>
       </c>
       <c r="H3">
-        <v>55424</v>
+        <v>55366</v>
       </c>
       <c r="I3">
-        <v>22324</v>
+        <v>22321</v>
       </c>
       <c r="J3">
-        <v>73389</v>
+        <v>73378</v>
       </c>
       <c r="K3">
-        <v>17898</v>
+        <v>18111</v>
       </c>
       <c r="L3">
-        <v>25970</v>
+        <v>25963</v>
       </c>
       <c r="M3">
         <v>11995</v>
       </c>
       <c r="N3">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="O3">
-        <v>92860</v>
+        <v>92877</v>
       </c>
       <c r="P3">
-        <v>102505</v>
+        <v>102367</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4">
-        <v>133580</v>
+        <v>133577</v>
       </c>
       <c r="C4">
-        <v>133384</v>
+        <v>133381</v>
       </c>
       <c r="D4">
         <v>196</v>
@@ -15605,10 +15658,10 @@
         <v>1181</v>
       </c>
       <c r="F4">
-        <v>15490</v>
+        <v>15491</v>
       </c>
       <c r="G4">
-        <v>69508</v>
+        <v>69504</v>
       </c>
       <c r="H4">
         <v>5605</v>
@@ -15640,16 +15693,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5">
-        <v>26865</v>
+        <v>26863</v>
       </c>
       <c r="C5">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D5">
-        <v>25818</v>
+        <v>25817</v>
       </c>
       <c r="E5">
         <v>457</v>
@@ -15661,16 +15714,16 @@
         <v>286</v>
       </c>
       <c r="H5">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I5">
         <v>109</v>
       </c>
       <c r="J5">
-        <v>9871</v>
+        <v>9869</v>
       </c>
       <c r="K5">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="L5">
         <v>2760</v>
@@ -15685,21 +15738,21 @@
         <v>23</v>
       </c>
       <c r="P5">
-        <v>11682</v>
+        <v>11684</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6">
-        <v>26570</v>
+        <v>26572</v>
       </c>
       <c r="C6">
         <v>21452</v>
       </c>
       <c r="D6">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -15720,7 +15773,7 @@
         <v>1267</v>
       </c>
       <c r="K6">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -15740,13 +15793,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7">
-        <v>18245</v>
+        <v>18244</v>
       </c>
       <c r="C7">
-        <v>12955</v>
+        <v>12954</v>
       </c>
       <c r="D7">
         <v>5290</v>
@@ -15755,7 +15808,7 @@
         <v>5919</v>
       </c>
       <c r="F7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7">
         <v>6254</v>
@@ -15790,13 +15843,13 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8">
-        <v>7849</v>
+        <v>7847</v>
       </c>
       <c r="C8">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="D8">
         <v>2068</v>
@@ -15805,7 +15858,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G8">
         <v>3323</v>
@@ -15814,7 +15867,7 @@
         <v>847</v>
       </c>
       <c r="I8">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J8">
         <v>67</v>
@@ -15840,16 +15893,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9">
-        <v>7275</v>
+        <v>7274</v>
       </c>
       <c r="C9">
         <v>6247</v>
       </c>
       <c r="D9">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E9">
         <v>532</v>
@@ -15885,24 +15938,24 @@
         <v>97</v>
       </c>
       <c r="P9">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10">
-        <v>7175</v>
+        <v>7197</v>
       </c>
       <c r="C10">
-        <v>5600</v>
+        <v>5598</v>
       </c>
       <c r="D10">
-        <v>1575</v>
+        <v>1599</v>
       </c>
       <c r="E10">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F10">
         <v>155</v>
@@ -15917,10 +15970,10 @@
         <v>1126</v>
       </c>
       <c r="J10">
-        <v>1308</v>
+        <v>1333</v>
       </c>
       <c r="K10">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L10">
         <v>116</v>
@@ -15940,7 +15993,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11">
         <v>6722</v>
@@ -15990,7 +16043,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B12">
         <v>5735</v>
@@ -16040,16 +16093,16 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B13">
-        <v>4623</v>
+        <v>4625</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -16067,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2751</v>
+        <v>2753</v>
       </c>
       <c r="K13">
         <v>497</v>
@@ -16090,7 +16143,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>2497</v>
@@ -16140,13 +16193,13 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B15">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C15">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D15">
         <v>1107</v>
@@ -16161,7 +16214,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -16190,16 +16243,16 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B16">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2176</v>
+        <v>2171</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -16229,27 +16282,27 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1892</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B17">
-        <v>2171</v>
+        <v>2162</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2171</v>
+        <v>2162</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -16279,18 +16332,18 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="P17">
-        <v>2171</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18">
         <v>1623</v>
@@ -16340,7 +16393,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19">
         <v>1560</v>
@@ -16390,7 +16443,7 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B20">
         <v>1323</v>
@@ -16440,7 +16493,7 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21">
         <v>977</v>
@@ -16490,7 +16543,7 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B22">
         <v>759</v>
@@ -16540,49 +16593,49 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B23">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D23">
-        <v>695</v>
+        <v>652</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>695</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -16590,49 +16643,49 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B24">
-        <v>645</v>
+        <v>695</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>549</v>
+        <v>695</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>695</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -16640,7 +16693,7 @@
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25">
         <v>541</v>
@@ -16690,7 +16743,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26">
         <v>474</v>
@@ -16740,7 +16793,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27">
         <v>409</v>
@@ -16790,7 +16843,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28">
         <v>388</v>
@@ -16840,7 +16893,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29">
         <v>362</v>
@@ -16890,7 +16943,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30">
         <v>330</v>
@@ -16940,34 +16993,34 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C31">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="D31">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -16982,7 +17035,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -16990,34 +17043,34 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C32">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H32">
-        <v>291</v>
+        <v>54</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -17032,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -17040,7 +17093,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33">
         <v>288</v>
@@ -17090,7 +17143,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34">
         <v>153</v>
@@ -17140,7 +17193,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35">
         <v>130</v>
@@ -17190,7 +17243,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36">
         <v>104</v>
@@ -17240,7 +17293,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37">
         <v>99</v>
@@ -17290,7 +17343,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38">
         <v>96</v>
@@ -17340,16 +17393,16 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -17382,7 +17435,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -17390,7 +17443,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40">
         <v>60</v>
@@ -17440,7 +17493,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41">
         <v>55</v>
@@ -17490,7 +17543,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42">
         <v>55</v>
@@ -17540,7 +17593,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43">
         <v>34</v>
@@ -17590,7 +17643,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44">
         <v>32</v>
@@ -17640,7 +17693,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45">
         <v>28</v>
@@ -17690,7 +17743,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46">
         <v>16</v>
@@ -17740,7 +17793,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47">
         <v>15</v>
@@ -17790,7 +17843,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B48">
         <v>15</v>
@@ -17840,7 +17893,7 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49">
         <v>13</v>
@@ -17890,7 +17943,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B50">
         <v>8</v>
